--- a/Documentação/Backlog detalhado.xlsx
+++ b/Documentação/Backlog detalhado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25721"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80304AA1-587C-489C-AF9B-44C8A711280B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBCE150-9FCD-4284-BD06-AF080E36CEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{7B9352D3-48BB-45CA-9F4D-E687D954822B}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Planilha1!$A$1:$I$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +39,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+  <si>
+    <t>Grupo 10</t>
+  </si>
   <si>
     <t>Requisito</t>
   </si>
@@ -45,116 +53,110 @@
     <t>Classificação</t>
   </si>
   <si>
+    <t>Tam (#)</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
     <t>Logotipo</t>
   </si>
   <si>
+    <t>Logotipo com identidade da empresa</t>
+  </si>
+  <si>
     <t>Importante</t>
   </si>
   <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>Modelagem do banco de dados</t>
+  </si>
+  <si>
+    <t>Modelagem lógica para construção do banco de dados para registro em de dados transmitidos pelo equipamento</t>
+  </si>
+  <si>
     <t>Essencial</t>
   </si>
   <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>Script do banco de dados</t>
+  </si>
+  <si>
+    <t>Banco de dados MySQL seguindo a modelagem criada</t>
+  </si>
+  <si>
+    <t>Protótipo do site institucional estático</t>
+  </si>
+  <si>
+    <t>Protótipo da imagem do site institucional da empresa</t>
+  </si>
+  <si>
     <t>Desejável</t>
   </si>
   <si>
-    <t>Modelagem do banco de dados</t>
-  </si>
-  <si>
-    <t>Script do banco de dados</t>
-  </si>
-  <si>
-    <t>Site institucional estático</t>
-  </si>
-  <si>
-    <t>Site institucional em HTML e CSS</t>
-  </si>
-  <si>
-    <t>Dashboard estático para o cliente</t>
+    <t>Site institucional em HTML/CSS/JS</t>
+  </si>
+  <si>
+    <t>Site institucional construido em HTML/CSS/JS seguindo o modelo estático</t>
+  </si>
+  <si>
+    <t>Protótipo do dashboard estático para o cliente</t>
+  </si>
+  <si>
+    <t>Imagem detalhando o painel de acesso do cliente ao site</t>
   </si>
   <si>
     <t>Dashboard em HTML e CSS para o cliente</t>
   </si>
   <si>
+    <t>Construção do dashboard em HTML e CSS seguindo o modelo estático criado</t>
+  </si>
+  <si>
     <t>Documentação do projeto</t>
   </si>
   <si>
+    <t>Documentação incluindo contexto do negócio, objetivo, justificativa, premissas e restrições e detalhamento de equipe técnica para o projetro</t>
+  </si>
+  <si>
     <t>Configuração do projeto no GitHub</t>
   </si>
   <si>
+    <t>Repositório do projeto criado no GitHub com o acesso distribuído a todos os membros da equipe</t>
+  </si>
+  <si>
+    <t>Especialização de todos da equipe no assunto do projeto</t>
+  </si>
+  <si>
+    <t>Estudo de todos sobre o assunto do nosso projeto para que todos sejam especialistas no assunto</t>
+  </si>
+  <si>
     <t>Diagrama de solução</t>
   </si>
   <si>
-    <t>Especialização de todos da equipe no assunto do projeto</t>
-  </si>
-  <si>
-    <t>Modelagem lógica para construção do banco de dados para registro em de dados transmitidos pelo equipamento</t>
-  </si>
-  <si>
-    <t>Logotipo com identidade da empresa</t>
-  </si>
-  <si>
-    <t>Banco de dados MySQL seguindo a modelagem criada</t>
-  </si>
-  <si>
-    <t>Imagem do site institucional da empresa</t>
-  </si>
-  <si>
-    <t>Site institucional construido em HTML e CSS seguindo o modelo estático</t>
-  </si>
-  <si>
-    <t>Imagem detalhando o painel de acesso do cliente ao site</t>
-  </si>
-  <si>
-    <t>Construção do dashboard em HTML e CSS seguindo o modelo estático criado</t>
-  </si>
-  <si>
-    <t>Documentação incluindo contexto do negócio, objetivo, justificativa, premissas e restrições e detalhamento de equipe técnica para o projetro</t>
-  </si>
-  <si>
-    <t>Repositório do projeto criado no GitHub com o acesso distribuído a todos os membros da equipe</t>
+    <t>A definir o conceito</t>
+  </si>
+  <si>
+    <t>Diagrama de visão de negócio</t>
   </si>
   <si>
     <t>Diagrama de visão de negócios para maior compreensão do nosso cliente do passo a passo para iniciar a parceria conosco</t>
   </si>
   <si>
-    <t>Tamanho</t>
-  </si>
-  <si>
-    <t>Médio</t>
-  </si>
-  <si>
-    <t>Tam (#)</t>
-  </si>
-  <si>
-    <t>Grande</t>
-  </si>
-  <si>
-    <t>Pequeno</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>SP1</t>
-  </si>
-  <si>
-    <t>SP2</t>
-  </si>
-  <si>
-    <t>SP3</t>
-  </si>
-  <si>
-    <t>Estudo de todos sobre o assunto do nosso projeto para que todos sejam especialistas no assunto</t>
-  </si>
-  <si>
-    <t>Grupo 10</t>
+    <t>Usar uma ferramenta de gestão de projetos</t>
+  </si>
+  <si>
+    <t>Usar uma ferramenta de gestão de projetos para organização melhor dos requisitos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,8 +406,53 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -415,24 +462,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -442,60 +471,39 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="20% - Ênfase1" xfId="4" builtinId="30"/>
-    <cellStyle name="Bom" xfId="1" builtinId="26"/>
-    <cellStyle name="Ênfase2" xfId="5" builtinId="33"/>
-    <cellStyle name="Ênfase5" xfId="6" builtinId="45"/>
-    <cellStyle name="Neutro" xfId="3" builtinId="28"/>
+    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
+    <cellStyle name="Accent2" xfId="5" builtinId="33"/>
+    <cellStyle name="Accent5" xfId="6" builtinId="45"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Ruim" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -511,7 +519,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -807,438 +815,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BBE88E-FF86-4AE8-9CFA-5F843B9B3216}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" activeCellId="2" sqref="G8:I8 G6:I6 G13:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="76.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-    </row>
-    <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="13" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="13" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="13" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="1">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="1">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="45.75" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="1">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="1">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="1">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="40.5" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="1">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="52.5" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="1">
+        <v>21</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="40.5" customHeight="1">
+      <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="23" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="44.25" customHeight="1">
+      <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="1">
+        <v>21</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="48.75" customHeight="1">
+      <c r="A13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="23"/>
-    </row>
-    <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="25" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="21">
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="22">
+        <v>13</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" ht="57" customHeight="1">
+      <c r="A14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22">
         <v>5</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="21"/>
-    </row>
-    <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="21">
+      <c r="K14" s="23"/>
+      <c r="L14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="21"/>
-    </row>
-    <row r="5" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" spans="1:13" ht="50.25" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22">
         <v>8</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="21">
-        <v>8</v>
-      </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="21"/>
-    </row>
-    <row r="6" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="21">
-        <v>8</v>
-      </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="21"/>
-    </row>
-    <row r="7" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="21">
+      <c r="K15" s="23"/>
+      <c r="L15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="21"/>
-    </row>
-    <row r="8" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="21">
-        <v>5</v>
-      </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="21"/>
-    </row>
-    <row r="9" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="21">
-        <v>3</v>
-      </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="21"/>
-    </row>
-    <row r="10" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="21">
-        <v>13</v>
-      </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="21"/>
-    </row>
-    <row r="11" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="21">
-        <v>2</v>
-      </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="21"/>
-    </row>
-    <row r="12" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="21">
-        <v>21</v>
-      </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="21"/>
-    </row>
-    <row r="13" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="21">
-        <v>13</v>
-      </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" s="21"/>
+      <c r="M15" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
+  <mergeCells count="71">
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
@@ -1251,30 +1236,38 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentação/Backlog detalhado.xlsx
+++ b/Documentação/Backlog detalhado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBCE150-9FCD-4284-BD06-AF080E36CEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F37D7F6F-A9DD-4922-8B69-85B15F664707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{7B9352D3-48BB-45CA-9F4D-E687D954822B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Grupo 10</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Diagrama de solução</t>
   </si>
   <si>
-    <t>A definir o conceito</t>
+    <t>Desenho com detalhamento do funcionamento de todo o projeto no geral</t>
   </si>
   <si>
     <t>Diagrama de visão de negócio</t>
@@ -150,6 +150,21 @@
   </si>
   <si>
     <t>Usar uma ferramenta de gestão de projetos para organização melhor dos requisitos</t>
+  </si>
+  <si>
+    <t>Conectar com o banco de dados</t>
+  </si>
+  <si>
+    <t>Utilizar o Node JS para integrar os dados colocados no sistema ao banco de dados</t>
+  </si>
+  <si>
+    <t>SP3</t>
+  </si>
+  <si>
+    <t>Conectar com banco de dados em nuvem</t>
+  </si>
+  <si>
+    <t>Utilizar serviço cloud Azzure para armazenar os dados</t>
   </si>
 </sst>
 </file>
@@ -408,6 +423,39 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -442,39 +490,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
@@ -815,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BBE88E-FF86-4AE8-9CFA-5F843B9B3216}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" activeCellId="2" sqref="G8:I8 G6:I6 G13:I13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -829,374 +844,424 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="1">
+      <c r="J3" s="12">
         <v>3</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="1">
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="12">
         <v>8</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="1">
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="12">
         <v>13</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="1">
+      <c r="J6" s="12">
         <v>21</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="1">
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="12">
         <v>21</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="1">
+      <c r="J8" s="12">
         <v>8</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
+      <c r="K8" s="12"/>
+      <c r="L8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="1"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="1">
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="12">
         <v>8</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
+      <c r="K9" s="12"/>
+      <c r="L9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="1"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" customHeight="1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="1">
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="12">
         <v>21</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
+      <c r="K10" s="12"/>
+      <c r="L10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="24" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="1">
+      <c r="J11" s="12">
         <v>3</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
+      <c r="K11" s="12"/>
+      <c r="L11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="44.25" customHeight="1">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="1">
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="12">
         <v>21</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
+      <c r="K12" s="12"/>
+      <c r="L12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="1"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="29"/>
-      <c r="J13" s="22">
+      <c r="J13" s="10">
         <v>13</v>
       </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="22" t="s">
+      <c r="K13" s="11"/>
+      <c r="L13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="23"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:13" ht="57" customHeight="1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22">
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10">
         <v>5</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="22" t="s">
+      <c r="K14" s="11"/>
+      <c r="L14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="23"/>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22">
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10">
         <v>8</v>
       </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="22" t="s">
+      <c r="K15" s="11"/>
+      <c r="L15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="23"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" ht="50.25" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10">
+        <v>21</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" ht="50.25" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10">
+        <v>21</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="81">
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
@@ -1207,14 +1272,6 @@
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
@@ -1224,6 +1281,13 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
@@ -1243,6 +1307,7 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
@@ -1268,6 +1333,16 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
